--- a/excel_reports/Howard_Seigle.xlsx
+++ b/excel_reports/Howard_Seigle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8903" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8848" uniqueCount="2112">
   <si>
     <t>Policy Record</t>
   </si>
@@ -5990,21 +5990,12 @@
     <t>3172219046</t>
   </si>
   <si>
-    <t>3424923516</t>
-  </si>
-  <si>
-    <t>Seifert</t>
-  </si>
-  <si>
     <t>3172287780</t>
   </si>
   <si>
     <t>3717774183</t>
   </si>
   <si>
-    <t>3172219065</t>
-  </si>
-  <si>
     <t>3172297265</t>
   </si>
   <si>
@@ -6113,9 +6104,6 @@
     <t>3172219237</t>
   </si>
   <si>
-    <t>3172310910</t>
-  </si>
-  <si>
     <t>3172310897</t>
   </si>
   <si>
@@ -6204,9 +6192,6 @@
   </si>
   <si>
     <t>3172310873</t>
-  </si>
-  <si>
-    <t>3172362009</t>
   </si>
   <si>
     <t>3172252451</t>
@@ -6784,12 +6769,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="B2" s="2">
         <v>271</v>
@@ -6797,26 +6782,26 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="B3" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -6825,7 +6810,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -6833,30 +6818,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -6865,12 +6850,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="B12" s="2">
         <v>73</v>
@@ -6878,7 +6863,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -6886,20 +6871,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -6908,12 +6893,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="B20">
         <v>62</v>
@@ -6921,15 +6906,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -6937,7 +6922,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -6946,7 +6931,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -6955,7 +6940,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6963,7 +6948,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6971,7 +6956,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -6979,7 +6964,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -6988,7 +6973,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -8969,7 +8954,7 @@
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>27</v>
@@ -9002,7 +8987,7 @@
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>27</v>
@@ -9175,7 +9160,7 @@
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>27</v>
@@ -9208,7 +9193,7 @@
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>27</v>
@@ -27224,7 +27209,7 @@
         <v>27</v>
       </c>
       <c r="L685" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="M685" t="s">
         <v>319</v>
@@ -28730,7 +28715,7 @@
         <v>27</v>
       </c>
       <c r="L745" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M745" t="s">
         <v>260</v>
@@ -28739,7 +28724,7 @@
         <v>39</v>
       </c>
       <c r="Q745" s="8" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="S745" s="10" t="s">
         <v>397</v>
@@ -28930,7 +28915,7 @@
         <v>27</v>
       </c>
       <c r="L753" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M753" t="s">
         <v>167</v>
@@ -28939,7 +28924,7 @@
         <v>39</v>
       </c>
       <c r="Q753" s="8" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="S753" s="10" t="s">
         <v>397</v>
@@ -30757,7 +30742,7 @@
         <v>27</v>
       </c>
       <c r="L824" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M824" t="s">
         <v>260</v>
@@ -30766,7 +30751,7 @@
         <v>21</v>
       </c>
       <c r="Q824" s="8" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="S824" s="10" t="s">
         <v>397</v>
@@ -31929,7 +31914,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T186"/>
+  <dimension ref="A1:T178"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32794,19 +32779,19 @@
         <v>1989</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1009</v>
+        <v>392</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1990</v>
+        <v>393</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>392</v>
@@ -32827,24 +32812,24 @@
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>861</v>
+        <v>1399</v>
       </c>
       <c r="N38" t="s">
-        <v>60</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>737</v>
+        <v>54</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>738</v>
+        <v>55</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>392</v>
@@ -32862,7 +32847,7 @@
         <v>1961</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="K40" t="s">
         <v>1963</v>
@@ -32871,24 +32856,24 @@
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>1399</v>
+        <v>93</v>
       </c>
       <c r="N40" t="s">
-        <v>429</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>756</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>55</v>
+        <v>757</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>392</v>
@@ -32915,10 +32900,10 @@
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>1992</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -32926,19 +32911,19 @@
         <v>1993</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>1009</v>
+        <v>392</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1990</v>
+        <v>393</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>392</v>
@@ -32959,10 +32944,10 @@
         <v>18</v>
       </c>
       <c r="M44" t="s">
-        <v>919</v>
+        <v>1992</v>
       </c>
       <c r="N44" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -32970,13 +32955,13 @@
         <v>1994</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>392</v>
@@ -32994,7 +32979,7 @@
         <v>1961</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="K46" t="s">
         <v>1963</v>
@@ -33003,24 +32988,24 @@
         <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>1995</v>
+        <v>1273</v>
       </c>
       <c r="N46" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>757</v>
+        <v>344</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>392</v>
@@ -33038,7 +33023,7 @@
         <v>1961</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K48" t="s">
         <v>1963</v>
@@ -33047,24 +33032,24 @@
         <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>1995</v>
+        <v>638</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>760</v>
+        <v>288</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>392</v>
@@ -33082,7 +33067,7 @@
         <v>1961</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="K50" t="s">
         <v>1963</v>
@@ -33091,24 +33076,24 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>1273</v>
+        <v>793</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>775</v>
+        <v>813</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>776</v>
+        <v>343</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>344</v>
+        <v>814</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>392</v>
@@ -33126,7 +33111,7 @@
         <v>1961</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="K52" t="s">
         <v>1963</v>
@@ -33135,10 +33120,10 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>638</v>
+        <v>1998</v>
       </c>
       <c r="N52" t="s">
-        <v>20</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -33146,13 +33131,13 @@
         <v>1999</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>791</v>
+        <v>2000</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>288</v>
+        <v>914</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>792</v>
+        <v>2001</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>392</v>
@@ -33170,7 +33155,7 @@
         <v>1961</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="K54" t="s">
         <v>1963</v>
@@ -33179,24 +33164,24 @@
         <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>793</v>
+        <v>478</v>
       </c>
       <c r="N54" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>343</v>
+        <v>115</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>392</v>
@@ -33211,10 +33196,7 @@
         <v>393</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>1972</v>
+        <v>49</v>
       </c>
       <c r="K56" t="s">
         <v>1963</v>
@@ -33223,24 +33205,27 @@
         <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>2001</v>
+        <v>1119</v>
       </c>
       <c r="N56" t="s">
-        <v>429</v>
+        <v>440</v>
+      </c>
+      <c r="P56" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>2003</v>
+        <v>848</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>914</v>
+        <v>235</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>2004</v>
+        <v>236</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>392</v>
@@ -33258,33 +33243,33 @@
         <v>1961</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="K58" t="s">
         <v>1963</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M58" t="s">
-        <v>478</v>
+        <v>227</v>
       </c>
       <c r="N58" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="7" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>392</v>
@@ -33299,7 +33284,10 @@
         <v>393</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>49</v>
+        <v>1961</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>1965</v>
       </c>
       <c r="K60" t="s">
         <v>1963</v>
@@ -33308,27 +33296,24 @@
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>1119</v>
+        <v>593</v>
       </c>
       <c r="N60" t="s">
-        <v>440</v>
-      </c>
-      <c r="P60" t="s">
-        <v>734</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>235</v>
+        <v>883</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>236</v>
+        <v>884</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>392</v>
@@ -33352,27 +33337,27 @@
         <v>1963</v>
       </c>
       <c r="L62" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>227</v>
+        <v>885</v>
       </c>
       <c r="N62" t="s">
-        <v>60</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="7" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>852</v>
+        <v>926</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>250</v>
+        <v>927</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>853</v>
+        <v>928</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>392</v>
@@ -33390,7 +33375,7 @@
         <v>1961</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
       <c r="K64" t="s">
         <v>1963</v>
@@ -33399,24 +33384,24 @@
         <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>593</v>
+        <v>483</v>
       </c>
       <c r="N64" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>882</v>
+        <v>931</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>883</v>
+        <v>932</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>884</v>
+        <v>933</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>392</v>
@@ -33440,27 +33425,27 @@
         <v>1963</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M66" t="s">
-        <v>885</v>
+        <v>227</v>
       </c>
       <c r="N66" t="s">
-        <v>429</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>392</v>
@@ -33477,9 +33462,6 @@
       <c r="I68" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>1972</v>
-      </c>
       <c r="K68" t="s">
         <v>1963</v>
       </c>
@@ -33487,24 +33469,24 @@
         <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="N68" t="s">
-        <v>39</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>392</v>
@@ -33521,34 +33503,31 @@
       <c r="I70" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K70" t="s">
         <v>1963</v>
       </c>
       <c r="L70" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>227</v>
+        <v>954</v>
       </c>
       <c r="N70" t="s">
-        <v>60</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>944</v>
+        <v>42</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>392</v>
@@ -33565,6 +33544,9 @@
       <c r="I72" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J72" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K72" t="s">
         <v>1963</v>
       </c>
@@ -33572,24 +33554,24 @@
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>517</v>
+        <v>761</v>
       </c>
       <c r="N72" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>952</v>
+        <v>654</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>392</v>
@@ -33606,6 +33588,9 @@
       <c r="I74" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J74" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K74" t="s">
         <v>1963</v>
       </c>
@@ -33613,24 +33598,24 @@
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>954</v>
+        <v>528</v>
       </c>
       <c r="N74" t="s">
-        <v>418</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>42</v>
+        <v>1003</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>961</v>
+        <v>1004</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>392</v>
@@ -33648,7 +33633,7 @@
         <v>1961</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K76" t="s">
         <v>1963</v>
@@ -33657,24 +33642,24 @@
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>761</v>
+        <v>499</v>
       </c>
       <c r="N76" t="s">
-        <v>408</v>
+        <v>972</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>970</v>
+        <v>1038</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>654</v>
+        <v>1039</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>971</v>
+        <v>1040</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>392</v>
@@ -33691,9 +33676,6 @@
       <c r="I78" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K78" t="s">
         <v>1963</v>
       </c>
@@ -33701,24 +33683,24 @@
         <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>528</v>
+        <v>1042</v>
       </c>
       <c r="N78" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>2015</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>1002</v>
-      </c>
       <c r="C80" s="8" t="s">
-        <v>1003</v>
+        <v>1435</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1004</v>
+        <v>2016</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>392</v>
@@ -33736,7 +33718,7 @@
         <v>1961</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K80" t="s">
         <v>1963</v>
@@ -33745,24 +33727,24 @@
         <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>499</v>
+        <v>966</v>
       </c>
       <c r="N80" t="s">
-        <v>972</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1039</v>
+        <v>883</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1040</v>
+        <v>1067</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>392</v>
@@ -33779,6 +33761,9 @@
       <c r="I82" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J82" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K82" t="s">
         <v>1963</v>
       </c>
@@ -33786,24 +33771,24 @@
         <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>1042</v>
+        <v>588</v>
       </c>
       <c r="N82" t="s">
-        <v>533</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1435</v>
+        <v>451</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>392</v>
@@ -33830,24 +33815,24 @@
         <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>966</v>
+        <v>51</v>
       </c>
       <c r="N84" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1066</v>
+        <v>1093</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>883</v>
+        <v>1094</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1067</v>
+        <v>1095</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>392</v>
@@ -33865,7 +33850,7 @@
         <v>1961</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K86" t="s">
         <v>1963</v>
@@ -33874,24 +33859,24 @@
         <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>588</v>
+        <v>487</v>
       </c>
       <c r="N86" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>2022</v>
+        <v>1101</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>451</v>
+        <v>1102</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>2023</v>
+        <v>1103</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>392</v>
@@ -33918,24 +33903,24 @@
         <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>51</v>
+        <v>512</v>
       </c>
       <c r="N88" t="s">
-        <v>21</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>2024</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>1093</v>
-      </c>
       <c r="C90" s="8" t="s">
-        <v>1094</v>
+        <v>717</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1095</v>
+        <v>2025</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>392</v>
@@ -33962,7 +33947,7 @@
         <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>487</v>
+        <v>604</v>
       </c>
       <c r="N90" t="s">
         <v>20</v>
@@ -33970,16 +33955,16 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1101</v>
+        <v>1141</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1102</v>
+        <v>1142</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1103</v>
+        <v>1143</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>392</v>
@@ -33997,7 +33982,7 @@
         <v>1961</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K92" t="s">
         <v>1963</v>
@@ -34006,24 +33991,24 @@
         <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>512</v>
+        <v>1144</v>
       </c>
       <c r="N92" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>2027</v>
+        <v>1153</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>717</v>
+        <v>156</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>2028</v>
+        <v>1154</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>392</v>
@@ -34050,7 +34035,7 @@
         <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>604</v>
+        <v>1602</v>
       </c>
       <c r="N94" t="s">
         <v>20</v>
@@ -34058,16 +34043,16 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1142</v>
+        <v>1161</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>392</v>
@@ -34085,7 +34070,7 @@
         <v>1961</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K96" t="s">
         <v>1963</v>
@@ -34094,30 +34079,30 @@
         <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>1144</v>
+        <v>576</v>
       </c>
       <c r="N96" t="s">
-        <v>403</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1146</v>
+        <v>1179</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>451</v>
+        <v>47</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1147</v>
+        <v>1180</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>1009</v>
+        <v>392</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>1990</v>
+        <v>393</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>392</v>
@@ -34129,7 +34114,7 @@
         <v>1961</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K98" t="s">
         <v>1963</v>
@@ -34138,24 +34123,24 @@
         <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>954</v>
+        <v>1959</v>
       </c>
       <c r="N98" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1153</v>
+        <v>1191</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1154</v>
+        <v>251</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>392</v>
@@ -34173,7 +34158,7 @@
         <v>1961</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K100" t="s">
         <v>1963</v>
@@ -34182,24 +34167,24 @@
         <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>1602</v>
+        <v>1992</v>
       </c>
       <c r="N100" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>2032</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>1160</v>
-      </c>
       <c r="C102" s="8" t="s">
-        <v>1161</v>
+        <v>2033</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1162</v>
+        <v>251</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>392</v>
@@ -34226,24 +34211,24 @@
         <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="N102" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>47</v>
+        <v>732</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1180</v>
+        <v>251</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>392</v>
@@ -34261,7 +34246,7 @@
         <v>1961</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K104" t="s">
         <v>1963</v>
@@ -34270,21 +34255,21 @@
         <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>1959</v>
+        <v>1992</v>
       </c>
       <c r="N104" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>362</v>
+        <v>1194</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>251</v>
@@ -34305,7 +34290,7 @@
         <v>1961</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K106" t="s">
         <v>1963</v>
@@ -34314,24 +34299,24 @@
         <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>1995</v>
+        <v>557</v>
       </c>
       <c r="N106" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>2036</v>
+        <v>1219</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>2037</v>
+        <v>1220</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>251</v>
+        <v>1221</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>392</v>
@@ -34358,7 +34343,7 @@
         <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>593</v>
+        <v>893</v>
       </c>
       <c r="N108" t="s">
         <v>418</v>
@@ -34366,16 +34351,16 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>1188</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>732</v>
+        <v>1803</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>251</v>
+        <v>1236</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>392</v>
@@ -34392,9 +34377,6 @@
       <c r="I110" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K110" t="s">
         <v>1963</v>
       </c>
@@ -34402,10 +34384,10 @@
         <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>1995</v>
+        <v>1959</v>
       </c>
       <c r="N110" t="s">
-        <v>408</v>
+        <v>773</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -34413,13 +34395,13 @@
         <v>2039</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1193</v>
+        <v>1234</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1194</v>
+        <v>1235</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>251</v>
+        <v>1236</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>392</v>
@@ -34437,7 +34419,7 @@
         <v>1961</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K112" t="s">
         <v>1963</v>
@@ -34446,10 +34428,10 @@
         <v>18</v>
       </c>
       <c r="M112" t="s">
-        <v>557</v>
+        <v>1959</v>
       </c>
       <c r="N112" t="s">
-        <v>403</v>
+        <v>773</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -34457,13 +34439,13 @@
         <v>2040</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1219</v>
+        <v>1263</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1220</v>
+        <v>353</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1221</v>
+        <v>1264</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>392</v>
@@ -34481,7 +34463,7 @@
         <v>1961</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K114" t="s">
         <v>1963</v>
@@ -34490,10 +34472,10 @@
         <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>893</v>
+        <v>638</v>
       </c>
       <c r="N114" t="s">
-        <v>418</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -34501,13 +34483,13 @@
         <v>2041</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>2042</v>
+        <v>1277</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1803</v>
+        <v>630</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1236</v>
+        <v>1278</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>392</v>
@@ -34524,6 +34506,9 @@
       <c r="I116" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J116" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K116" t="s">
         <v>1963</v>
       </c>
@@ -34531,24 +34516,24 @@
         <v>18</v>
       </c>
       <c r="M116" t="s">
-        <v>1959</v>
+        <v>1128</v>
       </c>
       <c r="N116" t="s">
-        <v>773</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1234</v>
+        <v>1284</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>1235</v>
+        <v>353</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1236</v>
+        <v>354</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>392</v>
@@ -34565,34 +34550,31 @@
       <c r="I118" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K118" t="s">
         <v>1963</v>
       </c>
       <c r="L118" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M118" t="s">
-        <v>1959</v>
+        <v>346</v>
       </c>
       <c r="N118" t="s">
-        <v>773</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1263</v>
+        <v>1316</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>353</v>
+        <v>1317</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1264</v>
+        <v>1318</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>392</v>
@@ -34619,24 +34601,24 @@
         <v>18</v>
       </c>
       <c r="M120" t="s">
-        <v>638</v>
+        <v>676</v>
       </c>
       <c r="N120" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1277</v>
+        <v>1332</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>630</v>
+        <v>1008</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1278</v>
+        <v>1333</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>392</v>
@@ -34654,7 +34636,7 @@
         <v>1961</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K122" t="s">
         <v>1963</v>
@@ -34663,7 +34645,7 @@
         <v>18</v>
       </c>
       <c r="M122" t="s">
-        <v>1128</v>
+        <v>1377</v>
       </c>
       <c r="N122" t="s">
         <v>408</v>
@@ -34671,16 +34653,16 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1284</v>
+        <v>1335</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>353</v>
+        <v>732</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>354</v>
+        <v>1336</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>392</v>
@@ -34697,31 +34679,34 @@
       <c r="I124" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J124" s="8" t="s">
+        <v>1965</v>
+      </c>
       <c r="K124" t="s">
         <v>1963</v>
       </c>
       <c r="L124" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M124" t="s">
-        <v>346</v>
+        <v>871</v>
       </c>
       <c r="N124" t="s">
-        <v>39</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>1317</v>
+        <v>1343</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1318</v>
+        <v>1344</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>392</v>
@@ -34739,7 +34724,7 @@
         <v>1961</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K126" t="s">
         <v>1963</v>
@@ -34748,24 +34733,24 @@
         <v>18</v>
       </c>
       <c r="M126" t="s">
-        <v>676</v>
+        <v>1509</v>
       </c>
       <c r="N126" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1332</v>
+        <v>1361</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1008</v>
+        <v>97</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1333</v>
+        <v>1362</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>392</v>
@@ -34783,7 +34768,7 @@
         <v>1961</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K128" t="s">
         <v>1963</v>
@@ -34792,24 +34777,24 @@
         <v>18</v>
       </c>
       <c r="M128" t="s">
-        <v>1377</v>
+        <v>919</v>
       </c>
       <c r="N128" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1335</v>
+        <v>1401</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>732</v>
+        <v>42</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1336</v>
+        <v>1402</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>392</v>
@@ -34827,7 +34812,7 @@
         <v>1961</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K130" t="s">
         <v>1963</v>
@@ -34836,24 +34821,24 @@
         <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>871</v>
+        <v>676</v>
       </c>
       <c r="N130" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1342</v>
+        <v>1408</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>1343</v>
+        <v>1409</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1344</v>
+        <v>1410</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>392</v>
@@ -34871,7 +34856,7 @@
         <v>1961</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K132" t="s">
         <v>1963</v>
@@ -34880,24 +34865,24 @@
         <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>1509</v>
+        <v>483</v>
       </c>
       <c r="N132" t="s">
-        <v>403</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>1361</v>
+        <v>1414</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>97</v>
+        <v>1415</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1362</v>
+        <v>1410</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>392</v>
@@ -34915,7 +34900,7 @@
         <v>1961</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K134" t="s">
         <v>1963</v>
@@ -34924,24 +34909,24 @@
         <v>18</v>
       </c>
       <c r="M134" t="s">
-        <v>919</v>
+        <v>605</v>
       </c>
       <c r="N134" t="s">
-        <v>403</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1401</v>
+        <v>1412</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>392</v>
@@ -34968,24 +34953,24 @@
         <v>18</v>
       </c>
       <c r="M136" t="s">
-        <v>676</v>
+        <v>938</v>
       </c>
       <c r="N136" t="s">
-        <v>408</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1408</v>
+        <v>1417</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1409</v>
+        <v>1418</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>392</v>
@@ -35002,9 +34987,6 @@
       <c r="I138" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>1965</v>
-      </c>
       <c r="K138" t="s">
         <v>1963</v>
       </c>
@@ -35012,24 +34994,24 @@
         <v>18</v>
       </c>
       <c r="M138" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="N138" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1414</v>
+        <v>1424</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>1415</v>
+        <v>156</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1410</v>
+        <v>1425</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>392</v>
@@ -35056,7 +35038,7 @@
         <v>18</v>
       </c>
       <c r="M140" t="s">
-        <v>605</v>
+        <v>51</v>
       </c>
       <c r="N140" t="s">
         <v>39</v>
@@ -35064,16 +35046,16 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>2055</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>1412</v>
-      </c>
       <c r="C142" s="8" t="s">
-        <v>353</v>
+        <v>146</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1410</v>
+        <v>1443</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>392</v>
@@ -35091,7 +35073,7 @@
         <v>1961</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>1962</v>
+        <v>1972</v>
       </c>
       <c r="K142" t="s">
         <v>1963</v>
@@ -35100,10 +35082,10 @@
         <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>938</v>
+        <v>708</v>
       </c>
       <c r="N142" t="s">
-        <v>683</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -35111,13 +35093,13 @@
         <v>2056</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>1417</v>
+        <v>1442</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1418</v>
+        <v>511</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1419</v>
+        <v>1443</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>392</v>
@@ -35134,6 +35116,9 @@
       <c r="I144" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J144" s="8" t="s">
+        <v>1965</v>
+      </c>
       <c r="K144" t="s">
         <v>1963</v>
       </c>
@@ -35141,24 +35126,24 @@
         <v>18</v>
       </c>
       <c r="M144" t="s">
-        <v>537</v>
+        <v>1959</v>
       </c>
       <c r="N144" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="7" t="s">
         <v>2057</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1424</v>
+        <v>1451</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>156</v>
+        <v>1021</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1425</v>
+        <v>1452</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>392</v>
@@ -35176,7 +35161,7 @@
         <v>1961</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K146" t="s">
         <v>1963</v>
@@ -35185,24 +35170,24 @@
         <v>18</v>
       </c>
       <c r="M146" t="s">
-        <v>51</v>
+        <v>673</v>
       </c>
       <c r="N146" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="7" t="s">
         <v>2058</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>2059</v>
+        <v>1462</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>146</v>
+        <v>1463</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1443</v>
+        <v>1460</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>392</v>
@@ -35220,7 +35205,7 @@
         <v>1961</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="K148" t="s">
         <v>1963</v>
@@ -35229,24 +35214,24 @@
         <v>18</v>
       </c>
       <c r="M148" t="s">
-        <v>708</v>
+        <v>919</v>
       </c>
       <c r="N148" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="7" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1442</v>
+        <v>1458</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>511</v>
+        <v>1459</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1443</v>
+        <v>1460</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>392</v>
@@ -35263,9 +35248,6 @@
       <c r="I150" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J150" s="8" t="s">
-        <v>1965</v>
-      </c>
       <c r="K150" t="s">
         <v>1963</v>
       </c>
@@ -35273,30 +35255,30 @@
         <v>18</v>
       </c>
       <c r="M150" t="s">
-        <v>1959</v>
+        <v>1468</v>
       </c>
       <c r="N150" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="7" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1446</v>
+        <v>1470</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1447</v>
+        <v>24</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1448</v>
+        <v>1471</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>1009</v>
+        <v>392</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1990</v>
+        <v>393</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>392</v>
@@ -35307,6 +35289,9 @@
       <c r="I152" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J152" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K152" t="s">
         <v>1963</v>
       </c>
@@ -35314,24 +35299,24 @@
         <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>793</v>
+        <v>1959</v>
       </c>
       <c r="N152" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="7" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1451</v>
+        <v>1473</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1021</v>
+        <v>1474</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1452</v>
+        <v>1475</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>392</v>
@@ -35348,9 +35333,6 @@
       <c r="I154" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J154" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K154" t="s">
         <v>1963</v>
       </c>
@@ -35358,24 +35340,24 @@
         <v>18</v>
       </c>
       <c r="M154" t="s">
-        <v>673</v>
+        <v>1444</v>
       </c>
       <c r="N154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
       <c r="A156" s="7" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>1462</v>
+        <v>1478</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1463</v>
+        <v>1479</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>392</v>
@@ -35392,9 +35374,6 @@
       <c r="I156" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="J156" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="K156" t="s">
         <v>1963</v>
       </c>
@@ -35402,24 +35381,24 @@
         <v>18</v>
       </c>
       <c r="M156" t="s">
-        <v>919</v>
+        <v>1959</v>
       </c>
       <c r="N156" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
       <c r="A158" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>2064</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>1458</v>
-      </c>
       <c r="C158" s="8" t="s">
-        <v>1459</v>
+        <v>250</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1460</v>
+        <v>2065</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>392</v>
@@ -35432,35 +35411,29 @@
       </c>
       <c r="H158" s="8" t="s">
         <v>393</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>1961</v>
       </c>
       <c r="K158" t="s">
         <v>1963</v>
       </c>
       <c r="L158" t="s">
-        <v>18</v>
-      </c>
-      <c r="M158" t="s">
-        <v>1468</v>
-      </c>
-      <c r="N158" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>368</v>
+      </c>
+      <c r="O158" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
       <c r="A160" s="7" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1470</v>
+        <v>1498</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>24</v>
+        <v>984</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1471</v>
+        <v>1496</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>392</v>
@@ -35484,27 +35457,30 @@
         <v>1963</v>
       </c>
       <c r="L160" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="M160" t="s">
-        <v>1959</v>
+        <v>719</v>
       </c>
       <c r="N160" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="P160" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="7" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1473</v>
+        <v>1495</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>1474</v>
+        <v>42</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>1475</v>
+        <v>1496</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>392</v>
@@ -35521,6 +35497,9 @@
       <c r="I162" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J162" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K162" t="s">
         <v>1963</v>
       </c>
@@ -35528,24 +35507,24 @@
         <v>18</v>
       </c>
       <c r="M162" t="s">
-        <v>1444</v>
+        <v>2069</v>
       </c>
       <c r="N162" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="7" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>1478</v>
+        <v>1511</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>1479</v>
+        <v>415</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1475</v>
+        <v>1512</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>392</v>
@@ -35569,24 +35548,24 @@
         <v>18</v>
       </c>
       <c r="M164" t="s">
-        <v>1959</v>
+        <v>793</v>
       </c>
       <c r="N164" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="7" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>2069</v>
+        <v>1543</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>2070</v>
+        <v>1544</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>392</v>
@@ -35599,29 +35578,38 @@
       </c>
       <c r="H166" s="8" t="s">
         <v>393</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>1965</v>
       </c>
       <c r="K166" t="s">
         <v>1963</v>
       </c>
       <c r="L166" t="s">
-        <v>368</v>
-      </c>
-      <c r="O166" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="M166" t="s">
+        <v>260</v>
+      </c>
+      <c r="N166" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="7" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1498</v>
+        <v>1555</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>984</v>
+        <v>1556</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1496</v>
+        <v>1552</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>392</v>
@@ -35645,30 +35633,27 @@
         <v>1963</v>
       </c>
       <c r="L168" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
       <c r="M168" t="s">
-        <v>719</v>
+        <v>1553</v>
       </c>
       <c r="N168" t="s">
-        <v>418</v>
-      </c>
-      <c r="P168" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="7" t="s">
         <v>2073</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1495</v>
+        <v>1550</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>42</v>
+        <v>1551</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1496</v>
+        <v>1552</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>392</v>
@@ -35686,7 +35671,7 @@
         <v>1961</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K170" t="s">
         <v>1963</v>
@@ -35695,24 +35680,24 @@
         <v>18</v>
       </c>
       <c r="M170" t="s">
+        <v>1553</v>
+      </c>
+      <c r="N170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="7" t="s">
         <v>2074</v>
       </c>
-      <c r="N170" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" s="7" t="s">
-        <v>2075</v>
-      </c>
       <c r="B172" s="7" t="s">
-        <v>1511</v>
+        <v>1565</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>415</v>
+        <v>1566</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1512</v>
+        <v>1567</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>392</v>
@@ -35729,6 +35714,9 @@
       <c r="I172" s="8" t="s">
         <v>1961</v>
       </c>
+      <c r="J172" s="8" t="s">
+        <v>1962</v>
+      </c>
       <c r="K172" t="s">
         <v>1963</v>
       </c>
@@ -35736,24 +35724,24 @@
         <v>18</v>
       </c>
       <c r="M172" t="s">
-        <v>793</v>
+        <v>1271</v>
       </c>
       <c r="N172" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="7" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>1543</v>
+        <v>1585</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>432</v>
+        <v>1194</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>1544</v>
+        <v>1586</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>392</v>
@@ -35771,33 +35759,33 @@
         <v>1961</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K174" t="s">
         <v>1963</v>
       </c>
       <c r="L174" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M174" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="N174" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="7" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1555</v>
+        <v>1600</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>1556</v>
+        <v>1459</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1552</v>
+        <v>1601</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>392</v>
@@ -35815,7 +35803,7 @@
         <v>1961</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="K176" t="s">
         <v>1963</v>
@@ -35824,24 +35812,24 @@
         <v>18</v>
       </c>
       <c r="M176" t="s">
-        <v>1553</v>
+        <v>552</v>
       </c>
       <c r="N176" t="s">
-        <v>20</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="7" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>1550</v>
+        <v>1619</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1551</v>
+        <v>120</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>1552</v>
+        <v>1620</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>392</v>
@@ -35859,198 +35847,22 @@
         <v>1961</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="K178" t="s">
         <v>1963</v>
       </c>
       <c r="L178" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="M178" t="s">
-        <v>1553</v>
+        <v>605</v>
       </c>
       <c r="N178" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" s="7" t="s">
-        <v>2079</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H180" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I180" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J180" s="8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K180" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L180" t="s">
-        <v>18</v>
-      </c>
-      <c r="M180" t="s">
-        <v>1271</v>
-      </c>
-      <c r="N180" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16">
-      <c r="A182" s="7" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H182" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I182" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J182" s="8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L182" t="s">
-        <v>18</v>
-      </c>
-      <c r="M182" t="s">
-        <v>448</v>
-      </c>
-      <c r="N182" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16">
-      <c r="A184" s="7" t="s">
-        <v>2081</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I184" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J184" s="8" t="s">
-        <v>1965</v>
-      </c>
-      <c r="K184" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L184" t="s">
-        <v>18</v>
-      </c>
-      <c r="M184" t="s">
-        <v>552</v>
-      </c>
-      <c r="N184" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
-      <c r="A186" s="7" t="s">
-        <v>2082</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I186" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J186" s="8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K186" t="s">
-        <v>1963</v>
-      </c>
-      <c r="L186" t="s">
-        <v>368</v>
-      </c>
-      <c r="M186" t="s">
-        <v>605</v>
-      </c>
-      <c r="N186" t="s">
         <v>39</v>
       </c>
-      <c r="P186" t="s">
-        <v>2083</v>
+      <c r="P178" t="s">
+        <v>2078</v>
       </c>
     </row>
   </sheetData>
@@ -36233,14 +36045,6 @@
     <hyperlink ref="B176" r:id="rId176"/>
     <hyperlink ref="A178" r:id="rId177"/>
     <hyperlink ref="B178" r:id="rId178"/>
-    <hyperlink ref="A180" r:id="rId179"/>
-    <hyperlink ref="B180" r:id="rId180"/>
-    <hyperlink ref="A182" r:id="rId181"/>
-    <hyperlink ref="B182" r:id="rId182"/>
-    <hyperlink ref="A184" r:id="rId183"/>
-    <hyperlink ref="B184" r:id="rId184"/>
-    <hyperlink ref="A186" r:id="rId185"/>
-    <hyperlink ref="B186" r:id="rId186"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36321,7 +36125,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1899</v>
@@ -36345,10 +36149,10 @@
         <v>393</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="K2" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>

--- a/excel_reports/Howard_Seigle.xlsx
+++ b/excel_reports/Howard_Seigle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9649" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="2283">
   <si>
     <t>Policy Record</t>
   </si>
@@ -6785,10 +6785,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -6830,13 +6833,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -6851,7 +6857,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -7261,7 +7270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7299,25 +7308,25 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>2255</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2256</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7325,62 +7334,70 @@
         <v>2258</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2260</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2262</v>
       </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>2263</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B13" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -7389,12 +7406,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B20">
         <v>86</v>
@@ -7402,7 +7419,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B21">
         <v>86</v>
@@ -7410,7 +7427,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -7418,25 +7435,33 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>2273</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7444,7 +7469,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7452,7 +7477,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -7460,19 +7485,27 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>2279</v>
+      </c>
+      <c r="B29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+      <c r="A30" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -11059,7 +11092,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -34716,7 +34749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -39222,7 +39255,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
